--- a/www/ig/fhir/cds/ValueSet-careteam-roles-vs.xlsx
+++ b/www/ig/fhir/cds/ValueSet-careteam-roles-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:09:14+00:00</t>
+    <t>2025-11-17T14:37:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
